--- a/DataManager/_Ref/DB_Sync 매뉴얼.xlsx
+++ b/DataManager/_Ref/DB_Sync 매뉴얼.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000. Source\090. ETC\DataManager\DataManager\_Ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C372E-90DB-4D2B-8208-3DFC2DE75F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6375" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataManager_V1.0.2" sheetId="2" r:id="rId1"/>
-    <sheet name="#데이터베이스 이름 변경 쿼리" sheetId="3" r:id="rId2"/>
+    <sheet name="DataManager_V1.0.3" sheetId="4" r:id="rId2"/>
+    <sheet name="DataManager_V1.0.4" sheetId="5" r:id="rId3"/>
+    <sheet name="#데이터베이스 이름 변경 쿼리" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>①</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,11 +101,28 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>텍스트를 입력 후 돋보기 버튼을 클릭하거나 엔터키를 입력할 경우 테이블 목록 중 해당 텍스트가 포함된 테이블명으로 포커스가 이동된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread 수를 설정하고 EXECUTE 버튼을 클릭할 경우 데이터 복사시 설정한 Thread 수만큼 병렬 처리를 진행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 Thread 수는 8이며, 최대 Thread로 진행시 CPU 부하가 많이 걸릴 경우 Thread 수를 조절하여 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify Database 탭을 클릭하고 EXECUTE 버튼을 클릭할 경우 현재 DB를 백업 DB로 이용가능하도록 DB명 및 DB 파일명을 교체해준다.
+(데이터베이스 이름 변경 쿼리의 동작을 프로그램에서 진행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,11 +260,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -254,23 +279,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -306,7 +340,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -344,7 +384,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -382,7 +428,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -420,7 +472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -458,7 +516,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -518,7 +582,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -581,7 +651,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -641,7 +717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -701,7 +783,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="직선 화살표 연결선 13"/>
+        <xdr:cNvPr id="14" name="직선 화살표 연결선 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
           <a:endCxn id="11" idx="1"/>
@@ -754,7 +842,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -817,7 +911,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -880,7 +980,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -940,7 +1046,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1000,7 +1112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1063,7 +1181,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1126,7 +1250,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="구부러진 연결선 29"/>
+        <xdr:cNvPr id="30" name="구부러진 연결선 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="1"/>
           <a:endCxn id="20" idx="1"/>
@@ -1178,7 +1308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1258,20 +1394,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>505853</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>105843</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607570</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C7E6E8-05D5-45BC-C4AE-86C742D7F0E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1284,6 +1426,1526 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="685799" y="209549"/>
+          <a:ext cx="8837171" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>671679</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4DA59D9-F625-43D6-CF05-3745781F0D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3419474"/>
+          <a:ext cx="8891754" cy="4267201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>353867</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>48472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF247BB3-C8F6-7802-3900-C534CDAA2F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="1543050"/>
+          <a:ext cx="10336067" cy="6068272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBC4994-F280-4C5F-A54E-46E04178D42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="752475"/>
+          <a:ext cx="2276475" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E3C6EB-58C6-492E-B70A-CBF292544408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="600075"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009C169B-2FB7-475F-BD43-178AD2B2987F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1343026"/>
+          <a:ext cx="8629650" cy="352424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539274FA-7F90-4476-A699-3444D162EDEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5105400"/>
+          <a:ext cx="1257300" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046D9E37-552B-40D9-A013-081BD0732226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9486900" y="4695825"/>
+          <a:ext cx="847725" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7379AAB-AFF7-4789-97C9-33D62F68B526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="4991100"/>
+          <a:ext cx="390525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710CAFDC-AF86-4A5C-9D6A-CC080E46AEFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="5124450"/>
+          <a:ext cx="1266825" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB362AC-8D9F-4A4E-BA86-DC8735EB5B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="3752850"/>
+          <a:ext cx="10182225" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EADEF3-382A-4C8B-8E0B-19B0FA141904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="4981575"/>
+          <a:ext cx="390525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145138</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BB3925-3F4E-F97C-891E-75C537C5E9C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1533525"/>
+          <a:ext cx="8924925" cy="5545813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE95AE7-740D-4F0C-99E3-0EEEB4D72318}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2381250"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70468384-CFC6-4163-B4F9-0EEADE4CE0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="2047876"/>
+          <a:ext cx="8953500" cy="1571624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>658542</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF73A68-3867-C4A1-1861-41949DFB4AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="5753100"/>
+          <a:ext cx="9440592" cy="1238423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315514</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3128F3B-881F-3845-2E78-CADB13C76398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="6991350"/>
+          <a:ext cx="8516539" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929C8CEF-9241-2A7A-C95A-BBC915BE4E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10010775" y="1504950"/>
+          <a:ext cx="8934450" cy="5551731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>668258</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E49223-48B0-037A-A305-F4327114C7D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="5743575"/>
+          <a:ext cx="10802858" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>401221</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801E98C2-052A-D44A-E780-EDCD0B4C8672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10191750" y="6962775"/>
+          <a:ext cx="8392696" cy="581106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D56AC36-4F40-4FBE-99C9-C91D0EEC9E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="5743575"/>
+          <a:ext cx="9496425" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38975893-28BD-4AA4-BD9C-194BDA501744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="2038349"/>
+          <a:ext cx="8924926" cy="1581151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3E443C-00FD-4CE1-8DCB-7939A3925A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14135100" y="1885950"/>
+          <a:ext cx="2952750" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914B82AA-25E8-42BF-9D84-A9EC1F9A4C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="5324475"/>
+          <a:ext cx="10906125" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 화살표 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA00F09D-F60B-F11E-F3F0-102D2CE0FA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9505950" y="2828925"/>
+          <a:ext cx="514350" cy="4763"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1340831C-8ED7-4891-9802-5FE6BB7A9F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="6276975"/>
+          <a:ext cx="438150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>505853</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="685800" y="209550"/>
           <a:ext cx="7363853" cy="7649643"/>
         </a:xfrm>
@@ -1309,7 +2971,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="그룹 32"/>
+        <xdr:cNvPr id="33" name="그룹 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -1322,7 +2990,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="31" name="그림 30"/>
+          <xdr:cNvPr id="31" name="그림 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1345,7 +3019,13 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="32" name="그림 31"/>
+          <xdr:cNvPr id="32" name="그림 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1384,7 +3064,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1422,7 +3108,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1482,7 +3174,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1532,7 +3230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvPr id="11" name="직사각형 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1592,7 +3296,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="직사각형 11"/>
+        <xdr:cNvPr id="12" name="직사각형 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1652,7 +3362,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1736,7 +3452,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1820,7 +3542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23"/>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1880,7 +3608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1960,7 +3694,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="직선 화살표 연결선 25"/>
+        <xdr:cNvPr id="26" name="직선 화살표 연결선 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
           <a:endCxn id="25" idx="1"/>
@@ -2013,7 +3753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="직사각형 29"/>
+        <xdr:cNvPr id="30" name="직사각형 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2073,7 +3819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvPr id="36" name="직사각형 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2134,7 +3886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2195,7 +3953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2256,7 +4020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="TextBox 40"/>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2327,7 +4097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2648,7 +4424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P3:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,36 +4441,36 @@
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="16:25" x14ac:dyDescent="0.3">
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="16:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q6" s="8" t="s">
@@ -2723,10 +4499,169 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84036045-7AE2-4320-B153-22CBF00FE976}">
+  <dimension ref="P3:AC6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="16:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="16:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="Q5:AC5"/>
+    <mergeCell ref="Q6:AC6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9593BB5-9B6D-432D-B880-861BA230E369}">
+  <dimension ref="B1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="13"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:O4"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>

--- a/DataManager/_Ref/DB_Sync 매뉴얼.xlsx
+++ b/DataManager/_Ref/DB_Sync 매뉴얼.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000. Source\090. ETC\DataManager\DataManager\_Ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000. Source\090. ETC\DataManager\DataManager\bin\Release\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619C372E-90DB-4D2B-8208-3DFC2DE75F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABB81C-9D02-4A55-B793-A64C04ED35BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataManager_V1.0.2" sheetId="2" r:id="rId1"/>
     <sheet name="DataManager_V1.0.3" sheetId="4" r:id="rId2"/>
     <sheet name="DataManager_V1.0.4" sheetId="5" r:id="rId3"/>
-    <sheet name="#데이터베이스 이름 변경 쿼리" sheetId="3" r:id="rId4"/>
+    <sheet name="DataManager_V1.1.0" sheetId="6" r:id="rId4"/>
+    <sheet name="DataManager_V1.1.1" sheetId="7" r:id="rId5"/>
+    <sheet name="#데이터베이스 이름 변경 쿼리" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>①</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,12 +120,148 @@
 (데이터베이스 이름 변경 쿼리의 동작을 프로그램에서 진행)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LOG 버튼을 클릭해 DataManager 기능 실행 이력을 확인합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히 버튼을 클릭 할 경우 해당 작업에 대한 상세 로그가 표시됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 버튼을 클릭해 배포 대상 폴더를 선택합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 폴더 내 ini 파일의 DB 정보를 읽어 하단에 추가됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼을 클릭해 선택된 사이트를 삭제합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 사이트에 연결된 DB 정보가 같이 삭제됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포 파일 경로 / 백업 파일 경로가 등록된 건에 대해 작업을 시작합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 데이터 마이그레이션 상태를 표시합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 기존파일 압축 &gt; 신규 파일 압축 해제 &gt; 신규 파일 기존 폴더에 복사 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 기존 DB 백업 DB로 변경 &gt; 백업 파일 기존 임시 DB명으로 복원 &gt; 데이터 복사 &gt; 임시 DB명에서 원래 DB명으로 변경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>배포 파일 적용 상태를 표시합니다. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이트가 존재할 경우 사이트 배포 및 DB배포 완료 후 사이트를 재시작합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 폴더 내 Patch.exe 폴더를 실행합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 확인 패널이 표시되며 버전 확인 및 업데이트를 진행합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트가 완료될 경우 패널이 사라지고 DataManager 프로그램이 실행됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 확인 및 파일은 sf.tascorp.co.kr,1444 - _GIT_MIRROR_DB - Patch 테이블을 참조합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. LOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. All In One (일괄 배포)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Patch (DataManager 버전 확인 및 업데이트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. All In One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread 수를 설정하고 EXECUTE 버튼을 클릭할 경우 데이터 복사시 설정한 Thread 수만큼 병렬 처리를 진행합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 검증 단계가 데이터 복사 후 쓰레드별로 검증하도록 변경되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Modify Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLLBACK 버튼이 추가 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataManager 프로그램에 의해 백업 DB로 변경된 DB를 원본 DB로 변경합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 Insert 방식이 변경되었습니다. (기존 : 25행씩 쿼리로 생성하여 직접 Insert -&gt; 수정 : SqlBulkCopy를 사용하여 10000행씩 Copy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 작업 실패시 임시 DB 삭제 및 백업 DB를 원본 DB로 변경하도록 수정되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +295,36 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -260,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +433,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -291,8 +473,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,8 +485,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2911,6 +3102,2939 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599710</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2174F568-827F-0F8A-1FD7-13D74CB47394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="7791450"/>
+          <a:ext cx="8829311" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3421E05-92E9-077D-313B-A90335CA6241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733424" y="8829675"/>
+          <a:ext cx="8782051" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>158748</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C99072-413C-FDEC-6D1B-271FCFC6E851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963149" y="8820150"/>
+          <a:ext cx="8750299" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92902E6A-58EF-4BD9-905F-9042CEB1EDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="8153401"/>
+          <a:ext cx="1047750" cy="504824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A8A405-4ABE-4C9D-AEBC-872053CC41F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="8810626"/>
+          <a:ext cx="8801100" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76FC996-7625-4057-A32C-04E6C7F1278E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9931774" y="1712820"/>
+          <a:ext cx="8726020" cy="4550709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="직선 화살표 연결선 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD45E9A-B59C-43A9-8060-C71588E7A664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="8667750"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB51D97-54A7-44E5-BACF-9BB414E82C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9020175" y="9134477"/>
+          <a:ext cx="514350" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 화살표 연결선 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A37CF036-3F66-4F83-B748-9D9DCADF698B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9534525" y="9277350"/>
+          <a:ext cx="438150" cy="4764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2EBDC8-E39A-47C5-8B68-E68C02465DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8210550" y="8077200"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D6E207-CCB3-4A70-BE42-D2CF01EAAFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="9086850"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643616</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0FFE9E-3F30-6B1E-161F-B9435EE2D80C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="712134" y="6619314"/>
+          <a:ext cx="8817747" cy="5590054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="직사각형 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B24C9A9-D91C-494F-A9A0-3B844AEA4EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="7439026"/>
+          <a:ext cx="590550" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="직사각형 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919CE3C7-1E50-4C41-9474-A6DACCAB82B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="7810501"/>
+          <a:ext cx="685800" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="직사각형 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B033E5F-F13A-4165-A3C4-F164A2935F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="7810501"/>
+          <a:ext cx="685800" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="직사각형 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A8C3A20-7B95-4543-A10F-63BA0B8D42E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467724" y="7810501"/>
+          <a:ext cx="1019175" cy="314324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C04830-FAE3-4BF8-BF16-48B9DAFC1F70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="7705724"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B863DB4-8402-4E73-85FA-499B87BFA41E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="7715249"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BAAE4F-0A2D-459F-B3D3-484AEE65A5FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="7715249"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>670671</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>144098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696BD28B-A2DB-7C31-EA4B-993CC89CCB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="12087225"/>
+          <a:ext cx="8890746" cy="7573598"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2E2C28-24E6-4F3D-8AC5-BB9DF90727A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12087224"/>
+          <a:ext cx="8896350" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB2B13B-046F-4F5B-B7B6-C4BF6B08CD78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13544549"/>
+          <a:ext cx="8896350" cy="6115051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40030AB-9B52-4256-84AB-BFD2D8C90FC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="12477750"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F960C8-A8F1-4F30-BE7F-4EB3D376E7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="14144625"/>
+          <a:ext cx="390525" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="직선 화살표 연결선 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85059987-F017-4E07-904A-A4D09F5E8004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5133975" y="8134350"/>
+          <a:ext cx="3843337" cy="3962399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>669911</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>56031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF46EF21-DB8D-1B03-8441-94F8B23BF73A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="20484354"/>
+          <a:ext cx="8872617" cy="4964206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="직사각형 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF769ED-5CB3-4FE8-940A-839C9C3B540A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2164975" y="22968697"/>
+          <a:ext cx="4547349" cy="261098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549806</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>190135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E111D2-4754-0C30-E677-45708692CA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924735" y="23532354"/>
+          <a:ext cx="5144218" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>143434</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>36978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96CA697-E26A-4E70-95AC-585F845DF871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2877669" y="23502096"/>
+          <a:ext cx="5224184" cy="1464609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>337297</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>21290</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>36978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253CBE2A-14B4-4947-A519-979B80B45CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="23229795"/>
+          <a:ext cx="1051111" cy="272301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>578784</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>35299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7D924E-1A0D-475B-AC31-96D1EB00C498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6342529" y="22893619"/>
+          <a:ext cx="388284" cy="416298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>540684</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E64B44C-5BDE-4FE8-BE9A-0B8A775B7FD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886635" y="23505460"/>
+          <a:ext cx="388284" cy="416298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>72646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C95B8E1A-7E3F-45EE-BA10-D94AB3366F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247649" y="509675"/>
+          <a:ext cx="8800176" cy="5468295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>661641</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>508996</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D6721B-F481-4B5C-BDE2-6B0D1605A9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11195170" y="1535206"/>
+          <a:ext cx="5315826" cy="4528297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587188</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDE4F03-F806-407F-87F7-02065BBB7D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6985747" y="1796305"/>
+          <a:ext cx="992842" cy="299196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E37664E-1389-4749-B84E-9E5FA822FC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="1685926"/>
+          <a:ext cx="8801100" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4115AA72-DF92-4B1E-8092-3634E7DDA461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11172264" y="4314265"/>
+          <a:ext cx="5300383" cy="1736352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA33801-E55C-4A6F-A01D-AA6A44B0342A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8772525" y="1543050"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215714</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50147</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC519A0-A20C-46F3-8C8C-2E8D49A1CE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7981390" y="1957389"/>
+          <a:ext cx="3190874" cy="3225052"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640415</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE779B2B-DC7D-41DC-A8F0-900FBB3D8864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6650691" y="1654549"/>
+          <a:ext cx="388283" cy="417980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>40851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>643616</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>186064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF043F07-3CFE-4DA3-9428-4F10BC55E648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="275104" y="6461822"/>
+          <a:ext cx="8817747" cy="5479213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA37203-188A-46C4-966A-E90E95F41DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8000999" y="8420100"/>
+          <a:ext cx="1053353" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>208428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>187698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76898C59-95DC-437A-8591-81B2D17BD9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7946651" y="8332693"/>
+          <a:ext cx="390525" cy="416299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>124386</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>512669</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2313B36-13B7-4FEE-8122-5AAEF921C989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14759268" y="4294655"/>
+          <a:ext cx="388283" cy="417980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>347381</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>49344</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD4ED2F-C870-F89B-CAEA-448C6207AAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9480175" y="6936441"/>
+          <a:ext cx="9305404" cy="5782236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="직사각형 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299776EE-CFDD-4958-82BC-FB71DE961313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9491382" y="8527677"/>
+          <a:ext cx="8113059" cy="1019736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40341</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC8C7D0-555F-446B-A4B4-0E61BB50A3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="286870" y="7962899"/>
+          <a:ext cx="7702924" cy="1013013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>474009</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="연결선: 꺾임 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE6B6B4-4E01-0665-3E47-52292C8B6AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8557372" y="4556872"/>
+          <a:ext cx="571501" cy="9409580"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 140000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4427,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P3:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -4441,49 +7565,49 @@
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="16:25" x14ac:dyDescent="0.3">
       <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="7"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="16:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="9"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4502,7 +7626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84036045-7AE2-4320-B153-22CBF00FE976}">
   <dimension ref="P3:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:AC6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4514,59 +7640,59 @@
       <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="5"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="12"/>
     </row>
     <row r="5" spans="16:29" x14ac:dyDescent="0.3">
       <c r="P5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="16:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P6" s="3"/>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="9"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4585,7 +7711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9593BB5-9B6D-432D-B880-861BA230E369}">
   <dimension ref="B1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4594,56 +7722,56 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="7"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4658,10 +7786,703 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C112246C-2F34-4CAB-9C66-4F6D78EA03A0}">
+  <dimension ref="B3:AC100"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="15" max="15" width="4.875" customWidth="1"/>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="12"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="16"/>
+    </row>
+    <row r="31" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="12"/>
+    </row>
+    <row r="33" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P33" s="4"/>
+      <c r="Q33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="5"/>
+    </row>
+    <row r="34" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="14"/>
+    </row>
+    <row r="35" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P35" s="4"/>
+      <c r="Q35" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC35" s="5"/>
+    </row>
+    <row r="36" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P38" s="4"/>
+      <c r="Q38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC38" s="5"/>
+    </row>
+    <row r="39" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC39" s="5"/>
+    </row>
+    <row r="40" spans="16:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="8"/>
+    </row>
+    <row r="96" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+      <c r="Z96" s="10"/>
+      <c r="AA96" s="10"/>
+      <c r="AB96" s="10"/>
+      <c r="AC96" s="10"/>
+    </row>
+    <row r="97" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R97" s="11"/>
+      <c r="S97" s="11"/>
+      <c r="T97" s="11"/>
+      <c r="U97" s="11"/>
+      <c r="V97" s="11"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="11"/>
+      <c r="Y97" s="11"/>
+      <c r="Z97" s="11"/>
+      <c r="AA97" s="11"/>
+      <c r="AB97" s="11"/>
+      <c r="AC97" s="12"/>
+    </row>
+    <row r="98" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC98" s="5"/>
+    </row>
+    <row r="99" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="13"/>
+      <c r="Z99" s="13"/>
+      <c r="AA99" s="13"/>
+      <c r="AB99" s="13"/>
+      <c r="AC99" s="14"/>
+    </row>
+    <row r="100" spans="16:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P100" s="3"/>
+      <c r="Q100" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q97:AC97"/>
+    <mergeCell ref="Q99:AC99"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="Q5:AC5"/>
+    <mergeCell ref="Q6:AC6"/>
+    <mergeCell ref="Q32:AC32"/>
+    <mergeCell ref="Q34:AC34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0E01F5-9F3B-49D7-A68A-9D57CE705620}">
+  <dimension ref="B2:AC39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="15" max="15" width="4.875" customWidth="1"/>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="12"/>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="14"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="16"/>
+    </row>
+    <row r="30" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="P31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="12"/>
+    </row>
+    <row r="32" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="6"/>
+      <c r="Q32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="16"/>
+    </row>
+    <row r="33" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P33" s="21"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+    </row>
+    <row r="34" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="23"/>
+    </row>
+    <row r="35" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+    </row>
+    <row r="36" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="23"/>
+    </row>
+    <row r="37" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+    </row>
+    <row r="38" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P38" s="21"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+    </row>
+    <row r="39" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q6:AC6"/>
+    <mergeCell ref="Q7:AC7"/>
+    <mergeCell ref="Q32:AC32"/>
+    <mergeCell ref="Q3:AC3"/>
+    <mergeCell ref="Q4:AC4"/>
+    <mergeCell ref="Q5:AC5"/>
+    <mergeCell ref="Q31:AC31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
